--- a/ExcelDataManager/output/Planilha_Consolidadora.xlsx
+++ b/ExcelDataManager/output/Planilha_Consolidadora.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="86">
   <si>
     <t>Nome do FC</t>
   </si>
@@ -277,16 +277,13 @@
     <t>3 fase</t>
   </si>
   <si>
-    <t>ClientName</t>
-  </si>
-  <si>
-    <t>ProjectName</t>
-  </si>
-  <si>
-    <t>SITES - PORTALRS</t>
-  </si>
-  <si>
     <t>PROCERGS-x</t>
+  </si>
+  <si>
+    <t>SITES - PORTALRS-x</t>
+  </si>
+  <si>
+    <t>SITE PORTAL RS-x</t>
   </si>
 </sst>
 </file>
@@ -4387,13 +4384,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="F2">
         <v>15000</v>
